--- a/Code/Results/Cases/Case_3_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_122/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9940726462854603</v>
+        <v>1.027301469128031</v>
       </c>
       <c r="D2">
-        <v>1.013049052631331</v>
+        <v>1.030001196895725</v>
       </c>
       <c r="E2">
-        <v>1.006831427129148</v>
+        <v>1.036933593997805</v>
       </c>
       <c r="F2">
-        <v>1.007854031251238</v>
+        <v>1.046890385881141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043138483388155</v>
+        <v>1.030132877928363</v>
       </c>
       <c r="J2">
-        <v>1.016432100474308</v>
+        <v>1.032460102980698</v>
       </c>
       <c r="K2">
-        <v>1.024329538224869</v>
+        <v>1.032813474584092</v>
       </c>
       <c r="L2">
-        <v>1.018196402733804</v>
+        <v>1.039725919186298</v>
       </c>
       <c r="M2">
-        <v>1.019205020720052</v>
+        <v>1.049654555532808</v>
       </c>
       <c r="N2">
-        <v>1.017875550643369</v>
+        <v>1.033926314751774</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9989135113245518</v>
+        <v>1.028303480205075</v>
       </c>
       <c r="D3">
-        <v>1.016508373107202</v>
+        <v>1.03071579529199</v>
       </c>
       <c r="E3">
-        <v>1.011188020643598</v>
+        <v>1.037896654303585</v>
       </c>
       <c r="F3">
-        <v>1.013240302806331</v>
+        <v>1.048106514079076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044395295868404</v>
+        <v>1.030294429557887</v>
       </c>
       <c r="J3">
-        <v>1.019433839002028</v>
+        <v>1.033101971119294</v>
       </c>
       <c r="K3">
-        <v>1.026934295243902</v>
+        <v>1.033336588257538</v>
       </c>
       <c r="L3">
-        <v>1.021679722405178</v>
+        <v>1.040498276765573</v>
       </c>
       <c r="M3">
-        <v>1.023706528720893</v>
+        <v>1.050681367972235</v>
       </c>
       <c r="N3">
-        <v>1.020881551984107</v>
+        <v>1.034569094416736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001974853402739</v>
+        <v>1.028951706589585</v>
       </c>
       <c r="D4">
-        <v>1.018695367098827</v>
+        <v>1.03117754955327</v>
       </c>
       <c r="E4">
-        <v>1.0139492073826</v>
+        <v>1.038520142686995</v>
       </c>
       <c r="F4">
-        <v>1.016655401448822</v>
+        <v>1.048894232300153</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045173832502563</v>
+        <v>1.030396890024064</v>
       </c>
       <c r="J4">
-        <v>1.021328176780188</v>
+        <v>1.033516588994972</v>
       </c>
       <c r="K4">
-        <v>1.028573272581506</v>
+        <v>1.033673771221209</v>
       </c>
       <c r="L4">
-        <v>1.023882143173693</v>
+        <v>1.04099775086418</v>
       </c>
       <c r="M4">
-        <v>1.026556881919383</v>
+        <v>1.051346020263458</v>
       </c>
       <c r="N4">
-        <v>1.022778579939196</v>
+        <v>1.034984301097355</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003245485548759</v>
+        <v>1.029224186890505</v>
       </c>
       <c r="D5">
-        <v>1.019602861231524</v>
+        <v>1.031371517164018</v>
       </c>
       <c r="E5">
-        <v>1.015096690532843</v>
+        <v>1.03878233437112</v>
       </c>
       <c r="F5">
-        <v>1.018074992790276</v>
+        <v>1.049225581145411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045493001900872</v>
+        <v>1.030439467262474</v>
       </c>
       <c r="J5">
-        <v>1.022113448943446</v>
+        <v>1.033690723046053</v>
       </c>
       <c r="K5">
-        <v>1.029251499521787</v>
+        <v>1.033815209450168</v>
       </c>
       <c r="L5">
-        <v>1.024796143938154</v>
+        <v>1.041207659350295</v>
       </c>
       <c r="M5">
-        <v>1.027740798434998</v>
+        <v>1.051625496539057</v>
       </c>
       <c r="N5">
-        <v>1.023564967278997</v>
+        <v>1.035158682438762</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003457889274201</v>
+        <v>1.029269935530289</v>
       </c>
       <c r="D6">
-        <v>1.019754545584276</v>
+        <v>1.031404076127078</v>
       </c>
       <c r="E6">
-        <v>1.015288591590231</v>
+        <v>1.038826362022316</v>
       </c>
       <c r="F6">
-        <v>1.018312422573683</v>
+        <v>1.049281227343027</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045546120317741</v>
+        <v>1.030446586998981</v>
       </c>
       <c r="J6">
-        <v>1.022244658929309</v>
+        <v>1.033719950861353</v>
       </c>
       <c r="K6">
-        <v>1.029364752707676</v>
+        <v>1.033838939147637</v>
       </c>
       <c r="L6">
-        <v>1.024948923304335</v>
+        <v>1.041242899770106</v>
       </c>
       <c r="M6">
-        <v>1.027938756499618</v>
+        <v>1.051672425144636</v>
       </c>
       <c r="N6">
-        <v>1.02369636359809</v>
+        <v>1.035187951760912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001991895090277</v>
+        <v>1.028955347618748</v>
       </c>
       <c r="D7">
-        <v>1.018707539406892</v>
+        <v>1.03118014196388</v>
       </c>
       <c r="E7">
-        <v>1.013964591774895</v>
+        <v>1.038523645802396</v>
       </c>
       <c r="F7">
-        <v>1.016674432544241</v>
+        <v>1.04889865904466</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045178128962243</v>
+        <v>1.030397460897361</v>
       </c>
       <c r="J7">
-        <v>1.021338712780763</v>
+        <v>1.033518916456356</v>
       </c>
       <c r="K7">
-        <v>1.028582377096252</v>
+        <v>1.033675662358442</v>
       </c>
       <c r="L7">
-        <v>1.02389440228221</v>
+        <v>1.041000555948761</v>
       </c>
       <c r="M7">
-        <v>1.026572757207165</v>
+        <v>1.051349754417374</v>
       </c>
       <c r="N7">
-        <v>1.0227891309021</v>
+        <v>1.034986631864001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9957237458037005</v>
+        <v>1.027640132745087</v>
       </c>
       <c r="D8">
-        <v>1.014229035132826</v>
+        <v>1.030242830428492</v>
       </c>
       <c r="E8">
-        <v>1.008316054367714</v>
+        <v>1.037258997423714</v>
       </c>
       <c r="F8">
-        <v>1.009689302733663</v>
+        <v>1.047301216118212</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043570527449525</v>
+        <v>1.030187904206342</v>
       </c>
       <c r="J8">
-        <v>1.017456724509391</v>
+        <v>1.032677172846004</v>
       </c>
       <c r="K8">
-        <v>1.025219653783722</v>
+        <v>1.032990533416454</v>
       </c>
       <c r="L8">
-        <v>1.019384545486486</v>
+        <v>1.039987001511941</v>
       </c>
       <c r="M8">
-        <v>1.020739606517295</v>
+        <v>1.050001522717473</v>
       </c>
       <c r="N8">
-        <v>1.018901629762112</v>
+        <v>1.034143692881172</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9841034911343745</v>
+        <v>1.02532147503087</v>
       </c>
       <c r="D9">
-        <v>1.005924793445101</v>
+        <v>1.02858631860182</v>
       </c>
       <c r="E9">
-        <v>0.9978947363857572</v>
+        <v>1.035033023193826</v>
       </c>
       <c r="F9">
-        <v>0.9968102717735292</v>
+        <v>1.044492453761173</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040463210211706</v>
+        <v>1.029802776724005</v>
       </c>
       <c r="J9">
-        <v>1.010230360368753</v>
+        <v>1.031188465312851</v>
       </c>
       <c r="K9">
-        <v>1.018922470857435</v>
+        <v>1.031773271952201</v>
       </c>
       <c r="L9">
-        <v>1.011022062619496</v>
+        <v>1.038198758604163</v>
       </c>
       <c r="M9">
-        <v>1.009955312953818</v>
+        <v>1.047627574682948</v>
       </c>
       <c r="N9">
-        <v>1.011665003355518</v>
+        <v>1.032652871212565</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9759233667837407</v>
+        <v>1.023774979450142</v>
       </c>
       <c r="D10">
-        <v>1.000083125096682</v>
+        <v>1.027478772060747</v>
       </c>
       <c r="E10">
-        <v>0.9905950248491483</v>
+        <v>1.033550739301504</v>
       </c>
       <c r="F10">
-        <v>0.9877913848525189</v>
+        <v>1.042624059445876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038193944870655</v>
+        <v>1.029535392058938</v>
       </c>
       <c r="J10">
-        <v>1.005125910674395</v>
+        <v>1.030192353612154</v>
       </c>
       <c r="K10">
-        <v>1.014450878856409</v>
+        <v>1.030955094825388</v>
       </c>
       <c r="L10">
-        <v>1.005136191003606</v>
+        <v>1.037005111680774</v>
       </c>
       <c r="M10">
-        <v>1.00238462469633</v>
+        <v>1.046046156791647</v>
       </c>
       <c r="N10">
-        <v>1.006553304757106</v>
+        <v>1.031655344918998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9722670229303089</v>
+        <v>1.023105157658464</v>
       </c>
       <c r="D11">
-        <v>0.99747426409678</v>
+        <v>1.02699844281151</v>
       </c>
       <c r="E11">
-        <v>0.9873414196444212</v>
+        <v>1.032909300195305</v>
       </c>
       <c r="F11">
-        <v>0.9837712937339105</v>
+        <v>1.041815996149143</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037161192358439</v>
+        <v>1.029417095774112</v>
       </c>
       <c r="J11">
-        <v>1.002840835274707</v>
+        <v>1.029760166941266</v>
       </c>
       <c r="K11">
-        <v>1.012443969803741</v>
+        <v>1.030599240587142</v>
       </c>
       <c r="L11">
-        <v>1.00250607281415</v>
+        <v>1.036487899433266</v>
       </c>
       <c r="M11">
-        <v>0.9990058894105958</v>
+        <v>1.045361671907113</v>
       </c>
       <c r="N11">
-        <v>1.004264984288249</v>
+        <v>1.031222544493465</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9708906504119176</v>
+        <v>1.022856328960528</v>
       </c>
       <c r="D12">
-        <v>0.996492650390251</v>
+        <v>1.026819914614999</v>
       </c>
       <c r="E12">
-        <v>0.986118088227304</v>
+        <v>1.032671101345105</v>
       </c>
       <c r="F12">
-        <v>0.9822596650694787</v>
+        <v>1.04151598982167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03676974600288</v>
+        <v>1.029372777558839</v>
       </c>
       <c r="J12">
-        <v>1.001980187567465</v>
+        <v>1.02959950403874</v>
       </c>
       <c r="K12">
-        <v>1.011687355587338</v>
+        <v>1.030466823891035</v>
       </c>
       <c r="L12">
-        <v>1.001516165478986</v>
+        <v>1.03629573048724</v>
       </c>
       <c r="M12">
-        <v>0.9977348212119036</v>
+        <v>1.045107465494174</v>
       </c>
       <c r="N12">
-        <v>1.003403114362545</v>
+        <v>1.031061653431189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9711867307303931</v>
+        <v>1.022909704788199</v>
       </c>
       <c r="D13">
-        <v>0.9967037893654105</v>
+        <v>1.026858214598571</v>
       </c>
       <c r="E13">
-        <v>0.9863811811249393</v>
+        <v>1.03272219308066</v>
       </c>
       <c r="F13">
-        <v>0.9825847658391094</v>
+        <v>1.041580335671734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036854072295602</v>
+        <v>1.029382301051597</v>
       </c>
       <c r="J13">
-        <v>1.002165347172136</v>
+        <v>1.029633972634486</v>
       </c>
       <c r="K13">
-        <v>1.011850166010291</v>
+        <v>1.030495238419833</v>
       </c>
       <c r="L13">
-        <v>1.001729102830651</v>
+        <v>1.0363369537886</v>
       </c>
       <c r="M13">
-        <v>0.9980082122155757</v>
+        <v>1.04516199174731</v>
       </c>
       <c r="N13">
-        <v>1.003588536915093</v>
+        <v>1.031096170976295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9721536302229133</v>
+        <v>1.023084589953686</v>
       </c>
       <c r="D14">
-        <v>0.9973933838380475</v>
+        <v>1.026983687906038</v>
       </c>
       <c r="E14">
-        <v>0.9872406057593766</v>
+        <v>1.032889609375204</v>
       </c>
       <c r="F14">
-        <v>0.9836467240195342</v>
+        <v>1.041791194590155</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037128996968423</v>
+        <v>1.029413440119239</v>
       </c>
       <c r="J14">
-        <v>1.002769939805671</v>
+        <v>1.029746889136651</v>
       </c>
       <c r="K14">
-        <v>1.012381658748421</v>
+        <v>1.03058829980513</v>
       </c>
       <c r="L14">
-        <v>1.002424515604374</v>
+        <v>1.036472015774836</v>
       </c>
       <c r="M14">
-        <v>0.9989011557794091</v>
+        <v>1.045340658275442</v>
       </c>
       <c r="N14">
-        <v>1.004193988139515</v>
+        <v>1.031209247832844</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.972746917906626</v>
+        <v>1.023192338885186</v>
       </c>
       <c r="D15">
-        <v>0.9978165805490971</v>
+        <v>1.027060981264673</v>
       </c>
       <c r="E15">
-        <v>0.9877681379902779</v>
+        <v>1.032992768060648</v>
       </c>
       <c r="F15">
-        <v>0.9842985595003375</v>
+        <v>1.041921130845047</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037297339322805</v>
+        <v>1.02943257588951</v>
       </c>
       <c r="J15">
-        <v>1.003140856863224</v>
+        <v>1.029816443563347</v>
       </c>
       <c r="K15">
-        <v>1.012707633432603</v>
+        <v>1.030645606660988</v>
       </c>
       <c r="L15">
-        <v>1.002851241939123</v>
+        <v>1.036555224863381</v>
       </c>
       <c r="M15">
-        <v>0.9994491707135945</v>
+        <v>1.045450746145157</v>
       </c>
       <c r="N15">
-        <v>1.004565431941834</v>
+        <v>1.031278901034804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9761635286751666</v>
+        <v>1.023819429530882</v>
       </c>
       <c r="D16">
-        <v>1.000254540609857</v>
+        <v>1.027510634107349</v>
       </c>
       <c r="E16">
-        <v>0.9908089293952997</v>
+        <v>1.033593317935206</v>
       </c>
       <c r="F16">
-        <v>0.9880556706508484</v>
+        <v>1.042677708213983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038261403487934</v>
+        <v>1.029543190001756</v>
       </c>
       <c r="J16">
-        <v>1.005275934796803</v>
+        <v>1.030221018240584</v>
       </c>
       <c r="K16">
-        <v>1.01458253653161</v>
+        <v>1.030978678493325</v>
       </c>
       <c r="L16">
-        <v>1.005308966055105</v>
+        <v>1.037039429876766</v>
       </c>
       <c r="M16">
-        <v>1.00260666225315</v>
+        <v>1.046091589667279</v>
       </c>
       <c r="N16">
-        <v>1.006703541930976</v>
+        <v>1.031684050254488</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9782753482557174</v>
+        <v>1.024212738885053</v>
       </c>
       <c r="D17">
-        <v>1.001762119407808</v>
+        <v>1.027792488077441</v>
       </c>
       <c r="E17">
-        <v>0.9926909123721673</v>
+        <v>1.033970134103152</v>
       </c>
       <c r="F17">
-        <v>0.9903808866179619</v>
+        <v>1.043152546931215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038852504128183</v>
+        <v>1.029611901760997</v>
       </c>
       <c r="J17">
-        <v>1.006594754251454</v>
+        <v>1.03047456617019</v>
       </c>
       <c r="K17">
-        <v>1.015739322669881</v>
+        <v>1.031187183503802</v>
       </c>
       <c r="L17">
-        <v>1.006828321660011</v>
+        <v>1.037343063838923</v>
       </c>
       <c r="M17">
-        <v>1.004559702350197</v>
+        <v>1.046493648538007</v>
       </c>
       <c r="N17">
-        <v>1.008024234260522</v>
+        <v>1.031937958251236</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.979496185859121</v>
+        <v>1.024442132317704</v>
       </c>
       <c r="D18">
-        <v>1.002633851423926</v>
+        <v>1.027956815898917</v>
       </c>
       <c r="E18">
-        <v>0.9937797505482591</v>
+        <v>1.034189963144016</v>
       </c>
       <c r="F18">
-        <v>0.9917261452476807</v>
+        <v>1.04342960534065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039192466468446</v>
+        <v>1.029651737288575</v>
       </c>
       <c r="J18">
-        <v>1.007356825821931</v>
+        <v>1.030622373034819</v>
       </c>
       <c r="K18">
-        <v>1.016407275511294</v>
+        <v>1.031308648647122</v>
       </c>
       <c r="L18">
-        <v>1.00770672441628</v>
+        <v>1.037520134109821</v>
       </c>
       <c r="M18">
-        <v>1.005689241072392</v>
+        <v>1.046728189658888</v>
       </c>
       <c r="N18">
-        <v>1.008787388060041</v>
+        <v>1.032085975018567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9799106335895144</v>
+        <v>1.024520346627734</v>
       </c>
       <c r="D19">
-        <v>1.002929816831333</v>
+        <v>1.028012835061682</v>
       </c>
       <c r="E19">
-        <v>0.9941495331770039</v>
+        <v>1.034264925699124</v>
       </c>
       <c r="F19">
-        <v>0.9921830107013277</v>
+        <v>1.04352409088935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039307576639462</v>
+        <v>1.029665278964134</v>
       </c>
       <c r="J19">
-        <v>1.007615474066804</v>
+        <v>1.030672757210598</v>
       </c>
       <c r="K19">
-        <v>1.016633895706766</v>
+        <v>1.031350039273382</v>
       </c>
       <c r="L19">
-        <v>1.008004933006792</v>
+        <v>1.037580504678814</v>
       </c>
       <c r="M19">
-        <v>1.006072777527261</v>
+        <v>1.046808166704264</v>
       </c>
       <c r="N19">
-        <v>1.009046403615089</v>
+        <v>1.032136430745655</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9780499101860307</v>
+        <v>1.024170542299869</v>
       </c>
       <c r="D20">
-        <v>1.001601162409656</v>
+        <v>1.027762255341247</v>
       </c>
       <c r="E20">
-        <v>0.9924899189966552</v>
+        <v>1.033929701306288</v>
       </c>
       <c r="F20">
-        <v>0.9901325586750224</v>
+        <v>1.043101591612235</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03878958494155</v>
+        <v>1.029604554758414</v>
       </c>
       <c r="J20">
-        <v>1.006454003779303</v>
+        <v>1.030447371496677</v>
       </c>
       <c r="K20">
-        <v>1.015615915615614</v>
+        <v>1.031164828638934</v>
       </c>
       <c r="L20">
-        <v>1.006666122202308</v>
+        <v>1.037310490333583</v>
       </c>
       <c r="M20">
-        <v>1.004351162968107</v>
+        <v>1.046450508636748</v>
       </c>
       <c r="N20">
-        <v>1.007883283906558</v>
+        <v>1.031910724958168</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9718694150858895</v>
+        <v>1.023033091379723</v>
       </c>
       <c r="D21">
-        <v>0.9971906677500009</v>
+        <v>1.02694674224427</v>
       </c>
       <c r="E21">
-        <v>0.986987942347887</v>
+        <v>1.032840307786304</v>
       </c>
       <c r="F21">
-        <v>0.9833345209584946</v>
+        <v>1.041729097912666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03704825736894</v>
+        <v>1.029404280863053</v>
       </c>
       <c r="J21">
-        <v>1.00259223529068</v>
+        <v>1.029713641614923</v>
       </c>
       <c r="K21">
-        <v>1.012225459975941</v>
+        <v>1.030560902073573</v>
       </c>
       <c r="L21">
-        <v>1.002220097831205</v>
+        <v>1.036432244856585</v>
       </c>
       <c r="M21">
-        <v>0.998638657340169</v>
+        <v>1.045288044285504</v>
       </c>
       <c r="N21">
-        <v>1.004016031263729</v>
+        <v>1.031175953095822</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9678773437504334</v>
+        <v>1.022317774190161</v>
       </c>
       <c r="D22">
-        <v>0.9943445535359179</v>
+        <v>1.026433346134502</v>
       </c>
       <c r="E22">
-        <v>0.9834425405848379</v>
+        <v>1.032155711181132</v>
       </c>
       <c r="F22">
-        <v>0.9789533081869524</v>
+        <v>1.040866991654892</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035907910528945</v>
+        <v>1.029276175625695</v>
       </c>
       <c r="J22">
-        <v>1.000095168644055</v>
+        <v>1.029251567209539</v>
       </c>
       <c r="K22">
-        <v>1.010028884662316</v>
+        <v>1.030179820895531</v>
       </c>
       <c r="L22">
-        <v>0.9993492979874882</v>
+        <v>1.035879748796122</v>
       </c>
       <c r="M22">
-        <v>0.9949535607691051</v>
+        <v>1.044557398240329</v>
       </c>
       <c r="N22">
-        <v>1.001515418496049</v>
+        <v>1.030713222491781</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9700040594416286</v>
+        <v>1.022696992272497</v>
       </c>
       <c r="D23">
-        <v>0.9958604852162578</v>
+        <v>1.026705568537803</v>
       </c>
       <c r="E23">
-        <v>0.9853304904474702</v>
+        <v>1.032518595724363</v>
       </c>
       <c r="F23">
-        <v>0.981286418833622</v>
+        <v>1.041323931490945</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036516850747194</v>
+        <v>1.029344293613182</v>
       </c>
       <c r="J23">
-        <v>1.001425676693952</v>
+        <v>1.029496592543003</v>
       </c>
       <c r="K23">
-        <v>1.011199670716142</v>
+        <v>1.030381968795463</v>
       </c>
       <c r="L23">
-        <v>1.000878567139913</v>
+        <v>1.036172666604936</v>
       </c>
       <c r="M23">
-        <v>0.99691629113751</v>
+        <v>1.044944704729738</v>
       </c>
       <c r="N23">
-        <v>1.002847816019987</v>
+        <v>1.030958595789323</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9781518097090062</v>
+        <v>1.024189609173522</v>
       </c>
       <c r="D24">
-        <v>1.001673915429047</v>
+        <v>1.027775916438409</v>
       </c>
       <c r="E24">
-        <v>0.9925807666633334</v>
+        <v>1.033947971027565</v>
       </c>
       <c r="F24">
-        <v>0.9902448012950371</v>
+        <v>1.043124615839876</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038818030276317</v>
+        <v>1.029607875303078</v>
       </c>
       <c r="J24">
-        <v>1.006517624981265</v>
+        <v>1.030459659856517</v>
       </c>
       <c r="K24">
-        <v>1.015671698866977</v>
+        <v>1.031174930310659</v>
       </c>
       <c r="L24">
-        <v>1.006739437242988</v>
+        <v>1.037325209004343</v>
       </c>
       <c r="M24">
-        <v>1.004445422648803</v>
+        <v>1.046470001617615</v>
       </c>
       <c r="N24">
-        <v>1.007946995457924</v>
+        <v>1.031923030768888</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9871803384251976</v>
+        <v>1.025921031402736</v>
       </c>
       <c r="D25">
-        <v>1.008123300379046</v>
+        <v>1.02901513555648</v>
       </c>
       <c r="E25">
-        <v>1.000648045539618</v>
+        <v>1.035608192852488</v>
       </c>
       <c r="F25">
-        <v>1.000212260337512</v>
+        <v>1.045217860181873</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041300351015056</v>
+        <v>1.029904217833159</v>
       </c>
       <c r="J25">
-        <v>1.012146973845619</v>
+        <v>1.03157397511103</v>
       </c>
       <c r="K25">
-        <v>1.020596807928102</v>
+        <v>1.032089141528002</v>
       </c>
       <c r="L25">
-        <v>1.013236309758719</v>
+        <v>1.038661325053472</v>
       </c>
       <c r="M25">
-        <v>1.012807282131007</v>
+        <v>1.048241083009536</v>
       </c>
       <c r="N25">
-        <v>1.013584338643361</v>
+        <v>1.033038928478877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_122/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027301469128031</v>
+        <v>0.9940726462854599</v>
       </c>
       <c r="D2">
-        <v>1.030001196895725</v>
+        <v>1.013049052631331</v>
       </c>
       <c r="E2">
-        <v>1.036933593997805</v>
+        <v>1.006831427129147</v>
       </c>
       <c r="F2">
-        <v>1.046890385881141</v>
+        <v>1.007854031251238</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030132877928363</v>
+        <v>1.043138483388155</v>
       </c>
       <c r="J2">
-        <v>1.032460102980698</v>
+        <v>1.016432100474308</v>
       </c>
       <c r="K2">
-        <v>1.032813474584092</v>
+        <v>1.024329538224869</v>
       </c>
       <c r="L2">
-        <v>1.039725919186298</v>
+        <v>1.018196402733804</v>
       </c>
       <c r="M2">
-        <v>1.049654555532808</v>
+        <v>1.019205020720052</v>
       </c>
       <c r="N2">
-        <v>1.033926314751774</v>
+        <v>1.017875550643368</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028303480205075</v>
+        <v>0.9989135113245518</v>
       </c>
       <c r="D3">
-        <v>1.03071579529199</v>
+        <v>1.016508373107202</v>
       </c>
       <c r="E3">
-        <v>1.037896654303585</v>
+        <v>1.011188020643598</v>
       </c>
       <c r="F3">
-        <v>1.048106514079076</v>
+        <v>1.013240302806331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030294429557887</v>
+        <v>1.044395295868404</v>
       </c>
       <c r="J3">
-        <v>1.033101971119294</v>
+        <v>1.019433839002028</v>
       </c>
       <c r="K3">
-        <v>1.033336588257538</v>
+        <v>1.026934295243902</v>
       </c>
       <c r="L3">
-        <v>1.040498276765573</v>
+        <v>1.021679722405178</v>
       </c>
       <c r="M3">
-        <v>1.050681367972235</v>
+        <v>1.023706528720893</v>
       </c>
       <c r="N3">
-        <v>1.034569094416736</v>
+        <v>1.020881551984106</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028951706589585</v>
+        <v>1.00197485340274</v>
       </c>
       <c r="D4">
-        <v>1.03117754955327</v>
+        <v>1.018695367098828</v>
       </c>
       <c r="E4">
-        <v>1.038520142686995</v>
+        <v>1.013949207382601</v>
       </c>
       <c r="F4">
-        <v>1.048894232300153</v>
+        <v>1.016655401448822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030396890024064</v>
+        <v>1.045173832502563</v>
       </c>
       <c r="J4">
-        <v>1.033516588994972</v>
+        <v>1.021328176780189</v>
       </c>
       <c r="K4">
-        <v>1.033673771221209</v>
+        <v>1.028573272581507</v>
       </c>
       <c r="L4">
-        <v>1.04099775086418</v>
+        <v>1.023882143173694</v>
       </c>
       <c r="M4">
-        <v>1.051346020263458</v>
+        <v>1.026556881919383</v>
       </c>
       <c r="N4">
-        <v>1.034984301097355</v>
+        <v>1.022778579939196</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029224186890505</v>
+        <v>1.003245485548758</v>
       </c>
       <c r="D5">
-        <v>1.031371517164018</v>
+        <v>1.019602861231524</v>
       </c>
       <c r="E5">
-        <v>1.03878233437112</v>
+        <v>1.015096690532842</v>
       </c>
       <c r="F5">
-        <v>1.049225581145411</v>
+        <v>1.018074992790276</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030439467262474</v>
+        <v>1.045493001900872</v>
       </c>
       <c r="J5">
-        <v>1.033690723046053</v>
+        <v>1.022113448943445</v>
       </c>
       <c r="K5">
-        <v>1.033815209450168</v>
+        <v>1.029251499521787</v>
       </c>
       <c r="L5">
-        <v>1.041207659350295</v>
+        <v>1.024796143938154</v>
       </c>
       <c r="M5">
-        <v>1.051625496539057</v>
+        <v>1.027740798434998</v>
       </c>
       <c r="N5">
-        <v>1.035158682438762</v>
+        <v>1.023564967278996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029269935530289</v>
+        <v>1.0034578892742</v>
       </c>
       <c r="D6">
-        <v>1.031404076127078</v>
+        <v>1.019754545584275</v>
       </c>
       <c r="E6">
-        <v>1.038826362022316</v>
+        <v>1.01528859159023</v>
       </c>
       <c r="F6">
-        <v>1.049281227343027</v>
+        <v>1.018312422573681</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030446586998981</v>
+        <v>1.04554612031774</v>
       </c>
       <c r="J6">
-        <v>1.033719950861353</v>
+        <v>1.022244658929307</v>
       </c>
       <c r="K6">
-        <v>1.033838939147637</v>
+        <v>1.029364752707674</v>
       </c>
       <c r="L6">
-        <v>1.041242899770106</v>
+        <v>1.024948923304333</v>
       </c>
       <c r="M6">
-        <v>1.051672425144636</v>
+        <v>1.027938756499616</v>
       </c>
       <c r="N6">
-        <v>1.035187951760912</v>
+        <v>1.023696363598088</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028955347618748</v>
+        <v>1.001991895090276</v>
       </c>
       <c r="D7">
-        <v>1.03118014196388</v>
+        <v>1.018707539406891</v>
       </c>
       <c r="E7">
-        <v>1.038523645802396</v>
+        <v>1.013964591774893</v>
       </c>
       <c r="F7">
-        <v>1.04889865904466</v>
+        <v>1.016674432544241</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030397460897361</v>
+        <v>1.045178128962243</v>
       </c>
       <c r="J7">
-        <v>1.033518916456356</v>
+        <v>1.021338712780763</v>
       </c>
       <c r="K7">
-        <v>1.033675662358442</v>
+        <v>1.028582377096251</v>
       </c>
       <c r="L7">
-        <v>1.041000555948761</v>
+        <v>1.023894402282209</v>
       </c>
       <c r="M7">
-        <v>1.051349754417374</v>
+        <v>1.026572757207164</v>
       </c>
       <c r="N7">
-        <v>1.034986631864001</v>
+        <v>1.022789130902099</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027640132745087</v>
+        <v>0.9957237458037005</v>
       </c>
       <c r="D8">
-        <v>1.030242830428492</v>
+        <v>1.014229035132826</v>
       </c>
       <c r="E8">
-        <v>1.037258997423714</v>
+        <v>1.008316054367715</v>
       </c>
       <c r="F8">
-        <v>1.047301216118212</v>
+        <v>1.009689302733663</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030187904206342</v>
+        <v>1.043570527449525</v>
       </c>
       <c r="J8">
-        <v>1.032677172846004</v>
+        <v>1.017456724509391</v>
       </c>
       <c r="K8">
-        <v>1.032990533416454</v>
+        <v>1.025219653783723</v>
       </c>
       <c r="L8">
-        <v>1.039987001511941</v>
+        <v>1.019384545486486</v>
       </c>
       <c r="M8">
-        <v>1.050001522717473</v>
+        <v>1.020739606517295</v>
       </c>
       <c r="N8">
-        <v>1.034143692881172</v>
+        <v>1.018901629762112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02532147503087</v>
+        <v>0.9841034911343742</v>
       </c>
       <c r="D9">
-        <v>1.02858631860182</v>
+        <v>1.005924793445101</v>
       </c>
       <c r="E9">
-        <v>1.035033023193826</v>
+        <v>0.9978947363857569</v>
       </c>
       <c r="F9">
-        <v>1.044492453761173</v>
+        <v>0.9968102717735288</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029802776724005</v>
+        <v>1.040463210211706</v>
       </c>
       <c r="J9">
-        <v>1.031188465312851</v>
+        <v>1.010230360368752</v>
       </c>
       <c r="K9">
-        <v>1.031773271952201</v>
+        <v>1.018922470857434</v>
       </c>
       <c r="L9">
-        <v>1.038198758604163</v>
+        <v>1.011022062619496</v>
       </c>
       <c r="M9">
-        <v>1.047627574682948</v>
+        <v>1.009955312953818</v>
       </c>
       <c r="N9">
-        <v>1.032652871212565</v>
+        <v>1.011665003355518</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023774979450142</v>
+        <v>0.9759233667837403</v>
       </c>
       <c r="D10">
-        <v>1.027478772060747</v>
+        <v>1.000083125096682</v>
       </c>
       <c r="E10">
-        <v>1.033550739301504</v>
+        <v>0.9905950248491477</v>
       </c>
       <c r="F10">
-        <v>1.042624059445876</v>
+        <v>0.9877913848525184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029535392058938</v>
+        <v>1.038193944870655</v>
       </c>
       <c r="J10">
-        <v>1.030192353612154</v>
+        <v>1.005125910674395</v>
       </c>
       <c r="K10">
-        <v>1.030955094825388</v>
+        <v>1.014450878856409</v>
       </c>
       <c r="L10">
-        <v>1.037005111680774</v>
+        <v>1.005136191003606</v>
       </c>
       <c r="M10">
-        <v>1.046046156791647</v>
+        <v>1.002384624696329</v>
       </c>
       <c r="N10">
-        <v>1.031655344918998</v>
+        <v>1.006553304757106</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023105157658464</v>
+        <v>0.9722670229303095</v>
       </c>
       <c r="D11">
-        <v>1.02699844281151</v>
+        <v>0.99747426409678</v>
       </c>
       <c r="E11">
-        <v>1.032909300195305</v>
+        <v>0.9873414196444216</v>
       </c>
       <c r="F11">
-        <v>1.041815996149143</v>
+        <v>0.9837712937339107</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029417095774112</v>
+        <v>1.037161192358439</v>
       </c>
       <c r="J11">
-        <v>1.029760166941266</v>
+        <v>1.002840835274707</v>
       </c>
       <c r="K11">
-        <v>1.030599240587142</v>
+        <v>1.012443969803741</v>
       </c>
       <c r="L11">
-        <v>1.036487899433266</v>
+        <v>1.00250607281415</v>
       </c>
       <c r="M11">
-        <v>1.045361671907113</v>
+        <v>0.999005889410596</v>
       </c>
       <c r="N11">
-        <v>1.031222544493465</v>
+        <v>1.004264984288249</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022856328960528</v>
+        <v>0.9708906504119176</v>
       </c>
       <c r="D12">
-        <v>1.026819914614999</v>
+        <v>0.9964926503902513</v>
       </c>
       <c r="E12">
-        <v>1.032671101345105</v>
+        <v>0.9861180882273038</v>
       </c>
       <c r="F12">
-        <v>1.04151598982167</v>
+        <v>0.9822596650694778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029372777558839</v>
+        <v>1.03676974600288</v>
       </c>
       <c r="J12">
-        <v>1.02959950403874</v>
+        <v>1.001980187567465</v>
       </c>
       <c r="K12">
-        <v>1.030466823891035</v>
+        <v>1.011687355587338</v>
       </c>
       <c r="L12">
-        <v>1.03629573048724</v>
+        <v>1.001516165478986</v>
       </c>
       <c r="M12">
-        <v>1.045107465494174</v>
+        <v>0.997734821211903</v>
       </c>
       <c r="N12">
-        <v>1.031061653431189</v>
+        <v>1.003403114362545</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022909704788199</v>
+        <v>0.9711867307303934</v>
       </c>
       <c r="D13">
-        <v>1.026858214598571</v>
+        <v>0.9967037893654114</v>
       </c>
       <c r="E13">
-        <v>1.03272219308066</v>
+        <v>0.9863811811249394</v>
       </c>
       <c r="F13">
-        <v>1.041580335671734</v>
+        <v>0.9825847658391089</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029382301051597</v>
+        <v>1.036854072295603</v>
       </c>
       <c r="J13">
-        <v>1.029633972634486</v>
+        <v>1.002165347172137</v>
       </c>
       <c r="K13">
-        <v>1.030495238419833</v>
+        <v>1.011850166010291</v>
       </c>
       <c r="L13">
-        <v>1.0363369537886</v>
+        <v>1.001729102830651</v>
       </c>
       <c r="M13">
-        <v>1.04516199174731</v>
+        <v>0.9980082122155753</v>
       </c>
       <c r="N13">
-        <v>1.031096170976295</v>
+        <v>1.003588536915093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023084589953686</v>
+        <v>0.9721536302229135</v>
       </c>
       <c r="D14">
-        <v>1.026983687906038</v>
+        <v>0.9973933838380478</v>
       </c>
       <c r="E14">
-        <v>1.032889609375204</v>
+        <v>0.9872406057593771</v>
       </c>
       <c r="F14">
-        <v>1.041791194590155</v>
+        <v>0.9836467240195352</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029413440119239</v>
+        <v>1.037128996968423</v>
       </c>
       <c r="J14">
-        <v>1.029746889136651</v>
+        <v>1.002769939805671</v>
       </c>
       <c r="K14">
-        <v>1.03058829980513</v>
+        <v>1.012381658748421</v>
       </c>
       <c r="L14">
-        <v>1.036472015774836</v>
+        <v>1.002424515604375</v>
       </c>
       <c r="M14">
-        <v>1.045340658275442</v>
+        <v>0.99890115577941</v>
       </c>
       <c r="N14">
-        <v>1.031209247832844</v>
+        <v>1.004193988139515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023192338885186</v>
+        <v>0.9727469179066252</v>
       </c>
       <c r="D15">
-        <v>1.027060981264673</v>
+        <v>0.9978165805490964</v>
       </c>
       <c r="E15">
-        <v>1.032992768060648</v>
+        <v>0.9877681379902766</v>
       </c>
       <c r="F15">
-        <v>1.041921130845047</v>
+        <v>0.9842985595003364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02943257588951</v>
+        <v>1.037297339322804</v>
       </c>
       <c r="J15">
-        <v>1.029816443563347</v>
+        <v>1.003140856863223</v>
       </c>
       <c r="K15">
-        <v>1.030645606660988</v>
+        <v>1.012707633432602</v>
       </c>
       <c r="L15">
-        <v>1.036555224863381</v>
+        <v>1.002851241939122</v>
       </c>
       <c r="M15">
-        <v>1.045450746145157</v>
+        <v>0.9994491707135934</v>
       </c>
       <c r="N15">
-        <v>1.031278901034804</v>
+        <v>1.004565431941833</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023819429530882</v>
+        <v>0.9761635286751669</v>
       </c>
       <c r="D16">
-        <v>1.027510634107349</v>
+        <v>1.000254540609858</v>
       </c>
       <c r="E16">
-        <v>1.033593317935206</v>
+        <v>0.9908089293953003</v>
       </c>
       <c r="F16">
-        <v>1.042677708213983</v>
+        <v>0.988055670650849</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029543190001756</v>
+        <v>1.038261403487935</v>
       </c>
       <c r="J16">
-        <v>1.030221018240584</v>
+        <v>1.005275934796804</v>
       </c>
       <c r="K16">
-        <v>1.030978678493325</v>
+        <v>1.014582536531611</v>
       </c>
       <c r="L16">
-        <v>1.037039429876766</v>
+        <v>1.005308966055106</v>
       </c>
       <c r="M16">
-        <v>1.046091589667279</v>
+        <v>1.00260666225315</v>
       </c>
       <c r="N16">
-        <v>1.031684050254488</v>
+        <v>1.006703541930977</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024212738885053</v>
+        <v>0.9782753482557169</v>
       </c>
       <c r="D17">
-        <v>1.027792488077441</v>
+        <v>1.001762119407808</v>
       </c>
       <c r="E17">
-        <v>1.033970134103152</v>
+        <v>0.9926909123721666</v>
       </c>
       <c r="F17">
-        <v>1.043152546931215</v>
+        <v>0.9903808866179613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029611901760997</v>
+        <v>1.038852504128183</v>
       </c>
       <c r="J17">
-        <v>1.03047456617019</v>
+        <v>1.006594754251453</v>
       </c>
       <c r="K17">
-        <v>1.031187183503802</v>
+        <v>1.015739322669881</v>
       </c>
       <c r="L17">
-        <v>1.037343063838923</v>
+        <v>1.00682832166001</v>
       </c>
       <c r="M17">
-        <v>1.046493648538007</v>
+        <v>1.004559702350196</v>
       </c>
       <c r="N17">
-        <v>1.031937958251236</v>
+        <v>1.008024234260522</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024442132317704</v>
+        <v>0.9794961858591208</v>
       </c>
       <c r="D18">
-        <v>1.027956815898917</v>
+        <v>1.002633851423926</v>
       </c>
       <c r="E18">
-        <v>1.034189963144016</v>
+        <v>0.9937797505482583</v>
       </c>
       <c r="F18">
-        <v>1.04342960534065</v>
+        <v>0.99172614524768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029651737288575</v>
+        <v>1.039192466468446</v>
       </c>
       <c r="J18">
-        <v>1.030622373034819</v>
+        <v>1.007356825821931</v>
       </c>
       <c r="K18">
-        <v>1.031308648647122</v>
+        <v>1.016407275511293</v>
       </c>
       <c r="L18">
-        <v>1.037520134109821</v>
+        <v>1.00770672441628</v>
       </c>
       <c r="M18">
-        <v>1.046728189658888</v>
+        <v>1.005689241072392</v>
       </c>
       <c r="N18">
-        <v>1.032085975018567</v>
+        <v>1.008787388060041</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024520346627734</v>
+        <v>0.9799106335895137</v>
       </c>
       <c r="D19">
-        <v>1.028012835061682</v>
+        <v>1.002929816831333</v>
       </c>
       <c r="E19">
-        <v>1.034264925699124</v>
+        <v>0.9941495331770035</v>
       </c>
       <c r="F19">
-        <v>1.04352409088935</v>
+        <v>0.9921830107013274</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029665278964134</v>
+        <v>1.039307576639462</v>
       </c>
       <c r="J19">
-        <v>1.030672757210598</v>
+        <v>1.007615474066803</v>
       </c>
       <c r="K19">
-        <v>1.031350039273382</v>
+        <v>1.016633895706765</v>
       </c>
       <c r="L19">
-        <v>1.037580504678814</v>
+        <v>1.008004933006792</v>
       </c>
       <c r="M19">
-        <v>1.046808166704264</v>
+        <v>1.006072777527261</v>
       </c>
       <c r="N19">
-        <v>1.032136430745655</v>
+        <v>1.009046403615088</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024170542299869</v>
+        <v>0.9780499101860297</v>
       </c>
       <c r="D20">
-        <v>1.027762255341247</v>
+        <v>1.001601162409656</v>
       </c>
       <c r="E20">
-        <v>1.033929701306288</v>
+        <v>0.9924899189966544</v>
       </c>
       <c r="F20">
-        <v>1.043101591612235</v>
+        <v>0.9901325586750215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029604554758414</v>
+        <v>1.038789584941549</v>
       </c>
       <c r="J20">
-        <v>1.030447371496677</v>
+        <v>1.006454003779303</v>
       </c>
       <c r="K20">
-        <v>1.031164828638934</v>
+        <v>1.015615915615614</v>
       </c>
       <c r="L20">
-        <v>1.037310490333583</v>
+        <v>1.006666122202307</v>
       </c>
       <c r="M20">
-        <v>1.046450508636748</v>
+        <v>1.004351162968107</v>
       </c>
       <c r="N20">
-        <v>1.031910724958168</v>
+        <v>1.007883283906557</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023033091379723</v>
+        <v>0.9718694150858895</v>
       </c>
       <c r="D21">
-        <v>1.02694674224427</v>
+        <v>0.9971906677500005</v>
       </c>
       <c r="E21">
-        <v>1.032840307786304</v>
+        <v>0.9869879423478872</v>
       </c>
       <c r="F21">
-        <v>1.041729097912666</v>
+        <v>0.9833345209584945</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029404280863053</v>
+        <v>1.03704825736894</v>
       </c>
       <c r="J21">
-        <v>1.029713641614923</v>
+        <v>1.00259223529068</v>
       </c>
       <c r="K21">
-        <v>1.030560902073573</v>
+        <v>1.01222545997594</v>
       </c>
       <c r="L21">
-        <v>1.036432244856585</v>
+        <v>1.002220097831205</v>
       </c>
       <c r="M21">
-        <v>1.045288044285504</v>
+        <v>0.9986386573401689</v>
       </c>
       <c r="N21">
-        <v>1.031175953095822</v>
+        <v>1.004016031263729</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022317774190161</v>
+        <v>0.9678773437504347</v>
       </c>
       <c r="D22">
-        <v>1.026433346134502</v>
+        <v>0.9943445535359184</v>
       </c>
       <c r="E22">
-        <v>1.032155711181132</v>
+        <v>0.9834425405848389</v>
       </c>
       <c r="F22">
-        <v>1.040866991654892</v>
+        <v>0.9789533081869534</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029276175625695</v>
+        <v>1.035907910528946</v>
       </c>
       <c r="J22">
-        <v>1.029251567209539</v>
+        <v>1.000095168644056</v>
       </c>
       <c r="K22">
-        <v>1.030179820895531</v>
+        <v>1.010028884662316</v>
       </c>
       <c r="L22">
-        <v>1.035879748796122</v>
+        <v>0.9993492979874889</v>
       </c>
       <c r="M22">
-        <v>1.044557398240329</v>
+        <v>0.9949535607691061</v>
       </c>
       <c r="N22">
-        <v>1.030713222491781</v>
+        <v>1.00151541849605</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022696992272497</v>
+        <v>0.9700040594416286</v>
       </c>
       <c r="D23">
-        <v>1.026705568537803</v>
+        <v>0.9958604852162575</v>
       </c>
       <c r="E23">
-        <v>1.032518595724363</v>
+        <v>0.9853304904474699</v>
       </c>
       <c r="F23">
-        <v>1.041323931490945</v>
+        <v>0.9812864188336214</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029344293613182</v>
+        <v>1.036516850747194</v>
       </c>
       <c r="J23">
-        <v>1.029496592543003</v>
+        <v>1.001425676693952</v>
       </c>
       <c r="K23">
-        <v>1.030381968795463</v>
+        <v>1.011199670716142</v>
       </c>
       <c r="L23">
-        <v>1.036172666604936</v>
+        <v>1.000878567139913</v>
       </c>
       <c r="M23">
-        <v>1.044944704729738</v>
+        <v>0.9969162911375096</v>
       </c>
       <c r="N23">
-        <v>1.030958595789323</v>
+        <v>1.002847816019987</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024189609173522</v>
+        <v>0.9781518097090063</v>
       </c>
       <c r="D24">
-        <v>1.027775916438409</v>
+        <v>1.001673915429047</v>
       </c>
       <c r="E24">
-        <v>1.033947971027565</v>
+        <v>0.9925807666633331</v>
       </c>
       <c r="F24">
-        <v>1.043124615839876</v>
+        <v>0.9902448012950368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029607875303078</v>
+        <v>1.038818030276317</v>
       </c>
       <c r="J24">
-        <v>1.030459659856517</v>
+        <v>1.006517624981265</v>
       </c>
       <c r="K24">
-        <v>1.031174930310659</v>
+        <v>1.015671698866977</v>
       </c>
       <c r="L24">
-        <v>1.037325209004343</v>
+        <v>1.006739437242987</v>
       </c>
       <c r="M24">
-        <v>1.046470001617615</v>
+        <v>1.004445422648803</v>
       </c>
       <c r="N24">
-        <v>1.031923030768888</v>
+        <v>1.007946995457923</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025921031402736</v>
+        <v>0.9871803384251977</v>
       </c>
       <c r="D25">
-        <v>1.02901513555648</v>
+        <v>1.008123300379046</v>
       </c>
       <c r="E25">
-        <v>1.035608192852488</v>
+        <v>1.000648045539618</v>
       </c>
       <c r="F25">
-        <v>1.045217860181873</v>
+        <v>1.000212260337512</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029904217833159</v>
+        <v>1.041300351015056</v>
       </c>
       <c r="J25">
-        <v>1.03157397511103</v>
+        <v>1.012146973845619</v>
       </c>
       <c r="K25">
-        <v>1.032089141528002</v>
+        <v>1.020596807928102</v>
       </c>
       <c r="L25">
-        <v>1.038661325053472</v>
+        <v>1.013236309758719</v>
       </c>
       <c r="M25">
-        <v>1.048241083009536</v>
+        <v>1.012807282131006</v>
       </c>
       <c r="N25">
-        <v>1.033038928478877</v>
+        <v>1.013584338643361</v>
       </c>
     </row>
   </sheetData>
